--- a/task2/Result.xlsx
+++ b/task2/Result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/royrao/Desktop/Big Data/FinalProj/Big_Data_Final_Project/task2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A5CE3D9-DBD2-2F49-8DAC-44B90B0FD59F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E11D3C3B-C34B-5B4E-B10E-632F6B35C842}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{EAA6C86C-83DC-C14B-8E48-D5A068021B27}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{EAA6C86C-83DC-C14B-8E48-D5A068021B27}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,15 +18,7 @@
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$2:$A$25</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$B$1</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$F$2:$F$25</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$B$2:$B$25</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$C$1</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$C$2:$C$25</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$D$1</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$D$2:$D$25</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$E$1</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$E$2:$E$25</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$F$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>total</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,10 +47,6 @@
   </si>
   <si>
     <t>pred_right</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>precison</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -161,12 +149,25 @@
     <t>house_number</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>precision</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>pre</t>
+  </si>
+  <si>
+    <t>pred_right</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -179,6 +180,14 @@
       <sz val="9"/>
       <name val="等线"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -205,8 +214,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -324,7 +336,7 @@
     <c:plotArea>
       <c:layout/>
       <c:barChart>
-        <c:barDir val="col"/>
+        <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
@@ -336,7 +348,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>precison</c:v>
+                  <c:v>precision</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -486,7 +498,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>1</c:v>
@@ -677,7 +689,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>1</c:v>
@@ -718,7 +730,6 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="112"/>
-        <c:overlap val="-15"/>
         <c:axId val="1332218911"/>
         <c:axId val="1331834687"/>
       </c:barChart>
@@ -728,7 +739,7 @@
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
+        <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -771,7 +782,6 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:tickMarkSkip val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
@@ -781,7 +791,7 @@
           <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="l"/>
+        <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -840,7 +850,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="t"/>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -879,6 +889,528 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr rot="0" vert="eaVert"/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Number</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t>of</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t>Columns</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t>of</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t>types</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>person_name</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>business_name</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>phone_number</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>address</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>street_name</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>city</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>neighborhood</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>lat_lon_cord</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>zip_code</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>borough</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>school_name</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>color</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>car_make</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>city_agency</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>subjects_in_school</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>school_level</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>college_name</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>website</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>building_classification</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>vehicle_type</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>park_palyground</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>location_type</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>area_of_study</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>house_number</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A5FE-EE4B-AFBB-63E7C0FC5B5F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="1214179888"/>
+        <c:axId val="1178912400"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1214179888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1178912400"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1178912400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1214179888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -954,6 +1486,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -1457,20 +2029,525 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>412750</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>107950</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>520700</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1490,6 +2567,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71A397B5-2FAE-314C-938D-51A2A7D7237D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1795,10 +2908,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8933B5C-6FAE-1740-A1CF-BF089B6FAC37}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="I51" sqref="I51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1806,7 +2919,7 @@
     <col min="1" max="1" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1817,15 +2930,15 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>5</v>
       </c>
       <c r="B2">
         <v>31</v>
@@ -1837,17 +2950,17 @@
         <v>29</v>
       </c>
       <c r="E2">
-        <f>D2/C2</f>
+        <f t="shared" ref="E2:E17" si="0">D2/C2</f>
         <v>0.87878787878787878</v>
       </c>
       <c r="F2">
-        <f>D2/B2</f>
+        <f t="shared" ref="F2:F17" si="1">D2/B2</f>
         <v>0.93548387096774188</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>8</v>
@@ -1859,17 +2972,17 @@
         <v>7</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E17" si="0">D3/C3</f>
+        <f t="shared" si="0"/>
         <v>0.875</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F17" si="1">D3/B3</f>
+        <f t="shared" si="1"/>
         <v>0.875</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>11</v>
@@ -1889,9 +3002,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>13</v>
@@ -1911,9 +3024,9 @@
         <v>0.15384615384615385</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>21</v>
@@ -1932,10 +3045,13 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>11</v>
@@ -1955,9 +3071,9 @@
         <v>0.72727272727272729</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>14</v>
@@ -1977,9 +3093,9 @@
         <v>0.9285714285714286</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>10</v>
@@ -1999,9 +3115,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10">
         <v>11</v>
@@ -2021,9 +3137,9 @@
         <v>0.90909090909090906</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11">
         <v>14</v>
@@ -2043,9 +3159,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12">
         <v>13</v>
@@ -2065,9 +3181,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13">
         <v>8</v>
@@ -2087,9 +3203,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14">
         <v>15</v>
@@ -2109,9 +3225,9 @@
         <v>0.93333333333333335</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15">
         <v>12</v>
@@ -2131,9 +3247,9 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16">
         <v>16</v>
@@ -2153,9 +3269,9 @@
         <v>0.8125</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17">
         <v>14</v>
@@ -2175,9 +3291,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:11">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -2189,15 +3305,15 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19">
         <v>9</v>
@@ -2216,10 +3332,19 @@
         <f t="shared" ref="F19:F25" si="3">D19/B19</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="I19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20">
         <v>10</v>
@@ -2238,10 +3363,19 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="I20" s="1">
+        <v>31</v>
+      </c>
+      <c r="J20" s="1">
+        <v>33</v>
+      </c>
+      <c r="K20" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21">
         <v>12</v>
@@ -2260,10 +3394,19 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="I21" s="1">
+        <v>8</v>
+      </c>
+      <c r="J21" s="1">
+        <v>8</v>
+      </c>
+      <c r="K21" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22">
         <v>6</v>
@@ -2282,10 +3425,19 @@
         <f t="shared" si="3"/>
         <v>0.83333333333333337</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="I22" s="1">
+        <v>11</v>
+      </c>
+      <c r="J22" s="1">
+        <v>11</v>
+      </c>
+      <c r="K22" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23">
         <v>2</v>
@@ -2304,10 +3456,19 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="I23" s="1">
+        <v>13</v>
+      </c>
+      <c r="J23" s="1">
+        <v>8</v>
+      </c>
+      <c r="K23" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24">
         <v>10</v>
@@ -2326,10 +3487,19 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="I24" s="1">
+        <v>21</v>
+      </c>
+      <c r="J24" s="1">
+        <v>34</v>
+      </c>
+      <c r="K24" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -2348,10 +3518,218 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
+      <c r="I25" s="1">
+        <v>11</v>
+      </c>
+      <c r="J25" s="1">
+        <v>9</v>
+      </c>
+      <c r="K25" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="I26" s="1">
+        <v>14</v>
+      </c>
+      <c r="J26" s="1">
+        <v>14</v>
+      </c>
+      <c r="K26" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="I27" s="1">
+        <v>10</v>
+      </c>
+      <c r="J27" s="1">
+        <v>10</v>
+      </c>
+      <c r="K27" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="I28" s="1">
+        <v>11</v>
+      </c>
+      <c r="J28" s="1">
+        <v>10</v>
+      </c>
+      <c r="K28" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="I29" s="1">
+        <v>14</v>
+      </c>
+      <c r="J29" s="1">
+        <v>25</v>
+      </c>
+      <c r="K29" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="I30" s="1">
+        <v>13</v>
+      </c>
+      <c r="J30" s="1">
+        <v>17</v>
+      </c>
+      <c r="K30" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="I31" s="1">
+        <v>8</v>
+      </c>
+      <c r="J31" s="1">
+        <v>8</v>
+      </c>
+      <c r="K31" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="I32" s="1">
+        <v>15</v>
+      </c>
+      <c r="J32" s="1">
+        <v>14</v>
+      </c>
+      <c r="K32" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="9:11">
+      <c r="I33" s="1">
+        <v>12</v>
+      </c>
+      <c r="J33" s="1">
+        <v>11</v>
+      </c>
+      <c r="K33" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="9:11">
+      <c r="I34" s="1">
+        <v>16</v>
+      </c>
+      <c r="J34" s="1">
+        <v>13</v>
+      </c>
+      <c r="K34" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="9:11">
+      <c r="I35" s="1">
+        <v>14</v>
+      </c>
+      <c r="J35" s="1">
+        <v>14</v>
+      </c>
+      <c r="K35" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="9:11">
+      <c r="I36" s="1">
+        <v>0</v>
+      </c>
+      <c r="J36" s="1">
+        <v>0</v>
+      </c>
+      <c r="K36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="9:11">
+      <c r="I37" s="1">
+        <v>9</v>
+      </c>
+      <c r="J37" s="1">
+        <v>9</v>
+      </c>
+      <c r="K37" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="9:11">
+      <c r="I38" s="1">
+        <v>10</v>
+      </c>
+      <c r="J38" s="1">
+        <v>10</v>
+      </c>
+      <c r="K38" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="9:11">
+      <c r="I39" s="1">
+        <v>12</v>
+      </c>
+      <c r="J39" s="1">
+        <v>12</v>
+      </c>
+      <c r="K39" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="9:11">
+      <c r="I40" s="1">
+        <v>6</v>
+      </c>
+      <c r="J40" s="1">
+        <v>7</v>
+      </c>
+      <c r="K40" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="9:11">
+      <c r="I41" s="1">
+        <v>2</v>
+      </c>
+      <c r="J41" s="1">
+        <v>2</v>
+      </c>
+      <c r="K41" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="9:11">
+      <c r="I42" s="1">
+        <v>10</v>
+      </c>
+      <c r="J42" s="1">
+        <v>10</v>
+      </c>
+      <c r="K42" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="9:11">
+      <c r="I43" s="1">
+        <v>1</v>
+      </c>
+      <c r="J43" s="1">
+        <v>1</v>
+      </c>
+      <c r="K43" s="1">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>